--- a/data/trans_camb/IP2003-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2003-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-10,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,71</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>-14,1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>-8,32</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 4,34</t>
+          <t>-5,55; 25,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 4,67</t>
+          <t>-22,65; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 5,65</t>
+          <t>-22,55; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 5,22</t>
+          <t>-30,68; 10,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -1,98</t>
+          <t>-24,62; 23,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,19; -6,09</t>
+          <t>-33,76; 5,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 2,76</t>
+          <t>-14,95; 13,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -0,05</t>
+          <t>-16,52; 9,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -1,57</t>
+          <t>-20,32; 4,37</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>213,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,48%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>-46,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-35,81%</t>
+          <t>-13,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-56,91%</t>
+          <t>-61,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-22,02%</t>
+          <t>-28,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-34,12%</t>
+          <t>-61,37%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 34,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 35,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 44,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 28,74</t>
+          <t>-100,0; 121,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,81; -9,51</t>
+          <t>-80,67; 248,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,66; -28,31</t>
+          <t>-100,0; 143,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 16,71</t>
+          <t>-69,65; 188,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 0,91</t>
+          <t>-85,13; 164,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,93; -9,65</t>
+          <t>-100,0; 204,48</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-12,25</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-6,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 2,45</t>
+          <t>-6,6; 4,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 6,88</t>
+          <t>-6,35; 4,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,26</t>
+          <t>-6,85; 5,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 10,55</t>
+          <t>-7,82; 5,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 10,65</t>
+          <t>-14,37; -1,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 6,7</t>
+          <t>-18,19; -6,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,91</t>
+          <t>-5,75; 2,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 7,22</t>
+          <t>-8,32; -0,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 3,56</t>
+          <t>-10,49; -1,57</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-27,08%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>-4,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>-7,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,8%</t>
+          <t>-35,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>-56,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>-7,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>-22,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-3,08%</t>
+          <t>-34,12%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,55; 26,59</t>
+          <t>-37,07; 34,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 80,69</t>
+          <t>-35,47; 35,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,43; 46,33</t>
+          <t>-38,24; 44,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 128,16</t>
+          <t>-31,65; 28,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 119,58</t>
+          <t>-56,81; -9,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 78,78</t>
+          <t>-72,66; -28,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 49,35</t>
+          <t>-28,65; 16,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 72,02</t>
+          <t>-40,55; 0,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 37,49</t>
+          <t>-51,93; -9,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-10,62</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-9,55</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,1</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,32</t>
+          <t>4,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 25,14</t>
+          <t>-7,7; 4,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 0,0</t>
+          <t>-8,6; 4,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 0,0</t>
+          <t>-5,03; 10,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-30,68; 10,4</t>
+          <t>-13,68; 0,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 23,47</t>
+          <t>-15,84; -2,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 5,91</t>
+          <t>-2,16; 20,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 13,06</t>
+          <t>-8,45; 0,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 9,27</t>
+          <t>-9,94; -1,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 4,37</t>
+          <t>-1,59; 11,65</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>213,76%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-12,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-46,36%</t>
+          <t>-32,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,34%</t>
+          <t>-45,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-61,55%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>-22,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-28,96%</t>
+          <t>-31,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-61,37%</t>
+          <t>22,9%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,76; 39,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,15; 40,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,12; 86,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,19</t>
+          <t>-55,7; 4,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-80,67; 248,35</t>
+          <t>-64,14; -12,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 143,2</t>
+          <t>-9,63; 115,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-69,65; 188,11</t>
+          <t>-41,61; 4,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-85,13; 164,55</t>
+          <t>-47,95; -3,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 204,48</t>
+          <t>-8,37; 75,24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-6,71</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-9,55</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 4,73</t>
+          <t>-8,22; 2,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 4,53</t>
+          <t>-4,15; 6,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 10,17</t>
+          <t>-6,5; 4,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 0,71</t>
+          <t>-1,81; 10,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -2,32</t>
+          <t>-1,53; 10,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 20,42</t>
+          <t>-5,2; 6,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 0,59</t>
+          <t>-3,21; 4,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,94; -1,17</t>
+          <t>-1,35; 7,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 11,65</t>
+          <t>-4,76; 3,56</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-12,36%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>-10,67%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-32,0%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-45,51%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-22,59%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-31,07%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>-3,08%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,76; 39,39</t>
+          <t>-56,55; 26,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 40,19</t>
+          <t>-27,37; 80,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 86,32</t>
+          <t>-44,43; 46,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,7; 4,5</t>
+          <t>-13,44; 128,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-64,14; -12,88</t>
+          <t>-11,88; 119,58</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 115,27</t>
+          <t>-37,14; 78,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,61; 4,32</t>
+          <t>-23,49; 49,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-47,95; -3,82</t>
+          <t>-10,2; 72,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 75,24</t>
+          <t>-35,05; 37,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2003-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2003-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 25,14</t>
+          <t>-5,42; 24,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 0,0</t>
+          <t>-23,09; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 0,0</t>
+          <t>-24,02; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,68; 10,4</t>
+          <t>-29,9; 10,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 23,47</t>
+          <t>-26,17; 21,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 5,91</t>
+          <t>-31,61; 5,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 13,06</t>
+          <t>-13,44; 12,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 9,27</t>
+          <t>-16,93; 9,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 4,37</t>
+          <t>-19,75; 3,56</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,19</t>
+          <t>-94,88; 180,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,67; 248,35</t>
+          <t>-82,29; 197,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 143,2</t>
+          <t>-100,0; 111,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,65; 188,11</t>
+          <t>-71,45; 182,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,13; 164,55</t>
+          <t>-86,98; 163,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 204,48</t>
+          <t>-100,0; 95,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 9,32</t>
+          <t>-6,64; 9,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 1,4</t>
+          <t>-12,45; 1,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 9,55</t>
+          <t>-15,05; 11,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 8,01</t>
+          <t>-8,68; 8,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 0,53</t>
+          <t>-14,33; 0,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 1,17</t>
+          <t>-14,74; 0,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 7,23</t>
+          <t>-4,67; 5,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,78; -0,11</t>
+          <t>-11,16; -0,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 2,5</t>
+          <t>-11,89; 3,61</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,91; 74,38</t>
+          <t>-32,78; 79,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,47; 14,76</t>
+          <t>-59,37; 14,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-82,83; 75,37</t>
+          <t>-82,33; 104,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 63,53</t>
+          <t>-40,96; 59,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,39; 8,67</t>
+          <t>-67,55; 3,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,08; 9,21</t>
+          <t>-67,7; 5,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 52,88</t>
+          <t>-24,74; 44,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,35; -0,52</t>
+          <t>-57,59; -4,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,0; 21,26</t>
+          <t>-64,52; 35,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 4,34</t>
+          <t>-6,77; 4,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 4,67</t>
+          <t>-6,5; 4,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 5,65</t>
+          <t>-6,35; 6,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 5,22</t>
+          <t>-8,36; 5,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -1,98</t>
+          <t>-13,98; -1,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,19; -6,09</t>
+          <t>-18,29; -5,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 2,76</t>
+          <t>-5,58; 3,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -0,05</t>
+          <t>-8,16; 0,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -1,57</t>
+          <t>-10,34; -1,61</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 34,4</t>
+          <t>-37,23; 33,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 35,35</t>
+          <t>-35,96; 38,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 44,07</t>
+          <t>-37,05; 53,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 28,74</t>
+          <t>-33,41; 27,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,81; -9,51</t>
+          <t>-54,59; -7,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,66; -28,31</t>
+          <t>-73,11; -30,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 16,71</t>
+          <t>-26,78; 18,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 0,91</t>
+          <t>-40,28; 1,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,93; -9,65</t>
+          <t>-50,92; -7,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 4,73</t>
+          <t>-8,58; 4,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 4,53</t>
+          <t>-8,65; 4,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 10,17</t>
+          <t>-4,95; 9,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 0,71</t>
+          <t>-13,78; 0,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -2,32</t>
+          <t>-16,36; -3,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 20,42</t>
+          <t>-3,17; 18,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 0,59</t>
+          <t>-9,18; 0,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,94; -1,17</t>
+          <t>-10,8; -1,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 11,65</t>
+          <t>-2,09; 11,92</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,76; 39,39</t>
+          <t>-46,94; 41,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 40,19</t>
+          <t>-46,13; 36,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 86,32</t>
+          <t>-28,51; 76,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,7; 4,5</t>
+          <t>-54,69; 7,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-64,14; -12,88</t>
+          <t>-65,45; -18,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 115,27</t>
+          <t>-13,5; 104,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,61; 4,32</t>
+          <t>-43,5; 4,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,95; -3,82</t>
+          <t>-51,76; -8,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 75,24</t>
+          <t>-11,7; 72,38</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 2,45</t>
+          <t>-8,57; 1,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 6,88</t>
+          <t>-4,26; 6,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,26</t>
+          <t>-6,42; 4,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 10,55</t>
+          <t>-1,66; 10,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 10,65</t>
+          <t>-0,85; 11,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 6,7</t>
+          <t>-5,21; 6,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,91</t>
+          <t>-3,28; 4,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 7,22</t>
+          <t>-1,29; 7,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 3,56</t>
+          <t>-4,26; 3,83</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,55; 26,59</t>
+          <t>-58,46; 17,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 80,69</t>
+          <t>-30,57; 72,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,43; 46,33</t>
+          <t>-43,16; 46,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 128,16</t>
+          <t>-13,47; 124,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 119,58</t>
+          <t>-9,14; 129,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 78,78</t>
+          <t>-37,85; 74,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 49,35</t>
+          <t>-24,14; 45,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 72,02</t>
+          <t>-9,38; 76,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 37,49</t>
+          <t>-31,51; 39,46</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 2,14</t>
+          <t>-4,57; 1,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,46</t>
+          <t>-4,52; 1,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,16</t>
+          <t>-4,12; 2,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,52</t>
+          <t>-4,26; 2,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -0,84</t>
+          <t>-7,56; -0,67</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 2,09</t>
+          <t>-6,65; 1,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,42</t>
+          <t>-3,46; 0,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,07; -0,36</t>
+          <t>-4,86; -0,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,84</t>
+          <t>-4,53; 0,76</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 16,89</t>
+          <t>-28,37; 13,17</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 11,82</t>
+          <t>-27,9; 11,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 24,69</t>
+          <t>-26,38; 23,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 15,76</t>
+          <t>-21,92; 17,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-38,69; -5,21</t>
+          <t>-38,57; -3,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 14,49</t>
+          <t>-34,54; 7,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 8,83</t>
+          <t>-20,14; 6,43</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-28,82; -1,89</t>
+          <t>-28,92; -3,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 6,12</t>
+          <t>-26,68; 5,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2003-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2003-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 24,8</t>
+          <t>-4,62; 25,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 0,0</t>
+          <t>-18,46; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 0,0</t>
+          <t>-20,85; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 10,41</t>
+          <t>-31,15; 9,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 21,59</t>
+          <t>-25,21; 19,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 5,77</t>
+          <t>-33,47; 6,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 12,57</t>
+          <t>-13,71; 12,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 9,05</t>
+          <t>-17,03; 9,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 3,56</t>
+          <t>-19,4; 4,24</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-94,88; 180,55</t>
+          <t>-100,0; 100,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,29; 197,27</t>
+          <t>-80,2; 171,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 111,44</t>
+          <t>-100,0; 101,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,45; 182,26</t>
+          <t>-70,97; 201,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,98; 163,31</t>
+          <t>-88,55; 140,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 95,32</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 9,39</t>
+          <t>-6,32; 9,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 1,56</t>
+          <t>-13,0; 2,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 11,67</t>
+          <t>-15,17; 10,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 8,13</t>
+          <t>-9,18; 8,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 0,12</t>
+          <t>-13,87; 1,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 0,13</t>
+          <t>-14,92; 1,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,98</t>
+          <t>-4,7; 7,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -0,74</t>
+          <t>-11,2; -0,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 3,61</t>
+          <t>-12,22; 3,82</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 79,48</t>
+          <t>-32,13; 77,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 14,51</t>
+          <t>-62,94; 21,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-82,33; 104,29</t>
+          <t>-83,22; 86,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,96; 59,28</t>
+          <t>-42,56; 66,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,55; 3,0</t>
+          <t>-66,52; 10,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,7; 5,7</t>
+          <t>-70,32; 7,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 44,0</t>
+          <t>-24,77; 50,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,59; -4,54</t>
+          <t>-57,12; -3,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-64,52; 35,35</t>
+          <t>-65,12; 35,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 4,19</t>
+          <t>-6,76; 4,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,99</t>
+          <t>-6,63; 4,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 6,73</t>
+          <t>-6,83; 6,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 5,13</t>
+          <t>-7,63; 5,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,98; -1,7</t>
+          <t>-14,16; -1,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -5,75</t>
+          <t>-18,09; -6,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 3,02</t>
+          <t>-5,51; 2,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 0,26</t>
+          <t>-7,99; 0,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -1,61</t>
+          <t>-10,58; -1,34</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,23; 33,4</t>
+          <t>-37,1; 42,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 38,79</t>
+          <t>-36,83; 39,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,05; 53,46</t>
+          <t>-39,22; 47,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 27,06</t>
+          <t>-31,58; 29,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,59; -7,29</t>
+          <t>-57,43; -9,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,11; -30,09</t>
+          <t>-72,5; -32,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 18,93</t>
+          <t>-27,4; 18,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 1,57</t>
+          <t>-39,55; 1,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,92; -7,34</t>
+          <t>-51,91; -7,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 4,77</t>
+          <t>-8,22; 4,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 4,21</t>
+          <t>-8,33; 5,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 9,25</t>
+          <t>-4,62; 9,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 0,83</t>
+          <t>-13,23; 0,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,36; -3,06</t>
+          <t>-16,94; -3,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 18,37</t>
+          <t>-3,0; 18,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 0,65</t>
+          <t>-8,97; 1,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,8; -1,46</t>
+          <t>-10,34; -0,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 11,92</t>
+          <t>-2,07; 11,53</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,94; 41,25</t>
+          <t>-45,92; 38,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,13; 36,74</t>
+          <t>-45,75; 46,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 76,64</t>
+          <t>-28,6; 82,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,69; 7,05</t>
+          <t>-53,32; 8,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,45; -18,02</t>
+          <t>-67,63; -18,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 104,69</t>
+          <t>-15,9; 101,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 4,1</t>
+          <t>-42,62; 7,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-51,76; -8,9</t>
+          <t>-50,12; -4,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 72,38</t>
+          <t>-10,89; 73,43</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 1,44</t>
+          <t>-7,93; 1,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 6,82</t>
+          <t>-4,35; 6,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 4,36</t>
+          <t>-6,92; 4,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 10,41</t>
+          <t>-0,87; 10,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 11,28</t>
+          <t>-1,03; 10,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 6,47</t>
+          <t>-5,0; 6,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,46</t>
+          <t>-3,16; 4,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 7,31</t>
+          <t>-1,12; 7,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,83</t>
+          <t>-4,18; 3,6</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-58,46; 17,42</t>
+          <t>-55,6; 22,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 72,95</t>
+          <t>-32,93; 71,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,16; 46,6</t>
+          <t>-46,87; 44,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 124,69</t>
+          <t>-6,38; 131,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 129,59</t>
+          <t>-8,49; 121,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 74,41</t>
+          <t>-36,11; 83,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 45,73</t>
+          <t>-23,1; 50,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 76,12</t>
+          <t>-8,66; 72,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 39,46</t>
+          <t>-31,68; 37,04</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,65</t>
+          <t>-4,09; 2,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 1,46</t>
+          <t>-3,94; 1,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,76</t>
+          <t>-4,0; 3,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 2,82</t>
+          <t>-4,62; 2,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -0,67</t>
+          <t>-7,31; -1,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,17</t>
+          <t>-6,67; 1,57</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,98</t>
+          <t>-3,14; 1,48</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,86; -0,52</t>
+          <t>-4,81; -0,4</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 0,76</t>
+          <t>-4,48; 0,83</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 13,17</t>
+          <t>-25,63; 16,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 11,31</t>
+          <t>-25,88; 15,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 23,41</t>
+          <t>-26,19; 24,25</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 17,75</t>
+          <t>-23,65; 15,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-38,57; -3,91</t>
+          <t>-38,22; -6,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 7,9</t>
+          <t>-35,09; 10,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 6,43</t>
+          <t>-18,86; 10,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-28,92; -3,53</t>
+          <t>-28,56; -2,84</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 5,71</t>
+          <t>-26,6; 6,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2003-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2003-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,62</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,1</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,32</t>
+          <t>-5,16</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 25,37</t>
+          <t>-9,38; 5,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 0,0</t>
+          <t>-13,83; 0,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 0,0</t>
+          <t>-14,97; -0,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 9,36</t>
+          <t>-3,97; 10,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,21; 19,63</t>
+          <t>-11,24; 1,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 6,46</t>
+          <t>-12,9; 20,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 12,46</t>
+          <t>-4,64; 6,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 9,28</t>
+          <t>-10,49; -0,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 4,24</t>
+          <t>-11,25; 8,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>213,76%</t>
+          <t>-10,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-34,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-42,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-46,36%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,34%</t>
+          <t>-34,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-61,55%</t>
+          <t>-20,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,96%</t>
+          <t>-34,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-61,37%</t>
+          <t>-31,94%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,4; 43,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,14; 10,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,53; 0,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 100,54</t>
+          <t>-24,13; 94,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,2; 171,29</t>
+          <t>-63,56; 14,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 101,04</t>
+          <t>-82,25; 160,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,97; 201,18</t>
+          <t>-24,39; 43,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,55; 140,18</t>
+          <t>-56,76; -6,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,06; 71,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>-12,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,89</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>-5,73</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 9,49</t>
+          <t>-7,82; 5,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 2,46</t>
+          <t>-14,37; -1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 10,15</t>
+          <t>-18,07; -5,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 8,3</t>
+          <t>-6,6; 4,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 1,01</t>
+          <t>-6,35; 4,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 1,03</t>
+          <t>-6,2; 7,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 7,02</t>
+          <t>-5,75; 2,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -0,5</t>
+          <t>-8,32; -0,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 3,82</t>
+          <t>-10,1; -0,92</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-31,03%</t>
+          <t>-35,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-40,95%</t>
+          <t>-56,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,59%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-40,92%</t>
+          <t>-4,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,11%</t>
+          <t>-2,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>-7,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,72%</t>
+          <t>-22,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-41,02%</t>
+          <t>-31,33%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 77,6</t>
+          <t>-31,65; 28,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,94; 21,53</t>
+          <t>-56,81; -9,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,22; 86,0</t>
+          <t>-72,27; -28,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,56; 66,91</t>
+          <t>-37,07; 34,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 10,29</t>
+          <t>-35,47; 35,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,32; 7,98</t>
+          <t>-35,25; 56,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 50,15</t>
+          <t>-28,65; 16,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,12; -3,21</t>
+          <t>-40,55; 0,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,12; 35,45</t>
+          <t>-50,66; -4,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-9,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>12,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,71</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>7,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 4,91</t>
+          <t>-13,68; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 4,88</t>
+          <t>-15,84; -2,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 6,3</t>
+          <t>0,05; 39,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 5,6</t>
+          <t>-7,7; 4,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -1,69</t>
+          <t>-8,6; 4,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,09; -6,06</t>
+          <t>-4,54; 10,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,84</t>
+          <t>-8,45; 0,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 0,36</t>
+          <t>-9,94; -1,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,58; -1,34</t>
+          <t>-0,09; 26,53</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>-32,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,48%</t>
+          <t>-45,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>60,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-35,81%</t>
+          <t>-12,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-56,91%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>-22,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-22,02%</t>
+          <t>-31,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-34,12%</t>
+          <t>43,72%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,1; 42,31</t>
+          <t>-55,7; 4,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,83; 39,89</t>
+          <t>-64,14; -12,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 47,14</t>
+          <t>-0,75; 214,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 29,29</t>
+          <t>-42,76; 39,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,43; -9,07</t>
+          <t>-45,15; 40,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,5; -32,62</t>
+          <t>-26,07; 89,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 18,5</t>
+          <t>-41,61; 4,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,55; 1,2</t>
+          <t>-47,95; -3,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,91; -7,61</t>
+          <t>-2,75; 155,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,71</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,55</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 4,49</t>
+          <t>-1,81; 10,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 5,17</t>
+          <t>-1,53; 10,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 9,49</t>
+          <t>-4,85; 6,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 0,94</t>
+          <t>-8,22; 2,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,94; -3,24</t>
+          <t>-4,15; 6,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 18,99</t>
+          <t>-6,29; 4,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 1,03</t>
+          <t>-3,21; 4,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -0,71</t>
+          <t>-1,35; 7,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 11,53</t>
+          <t>-4,65; 3,73</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,36%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-32,0%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-45,51%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>-9,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-22,59%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-31,07%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>-1,41%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,92; 38,69</t>
+          <t>-13,44; 128,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 46,78</t>
+          <t>-11,88; 119,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 82,29</t>
+          <t>-37,17; 79,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,32; 8,25</t>
+          <t>-56,55; 26,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-67,63; -18,46</t>
+          <t>-27,37; 80,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 101,6</t>
+          <t>-43,48; 49,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 7,84</t>
+          <t>-23,49; 49,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,12; -4,48</t>
+          <t>-10,2; 72,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 73,43</t>
+          <t>-34,54; 38,67</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 1,9</t>
+          <t>-4,18; 2,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 6,84</t>
+          <t>-7,21; -0,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 4,11</t>
+          <t>-5,43; 12,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 10,57</t>
+          <t>-3,85; 2,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 10,69</t>
+          <t>-4,39; 1,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 6,96</t>
+          <t>-3,62; 4,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,75</t>
+          <t>-3,22; 1,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 7,22</t>
+          <t>-5,07; -0,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,6</t>
+          <t>-3,2; 5,8</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-27,08%</t>
+          <t>-4,47%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>-23,1%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>-7,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>39,8%</t>
+          <t>-8,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>-16,55%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,08%</t>
+          <t>-1,84%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 22,52</t>
+          <t>-22,17; 15,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 71,51</t>
+          <t>-38,69; -5,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-46,87; 44,02</t>
+          <t>-29,52; 87,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 131,38</t>
+          <t>-25,17; 16,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 121,11</t>
+          <t>-28,04; 11,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 83,11</t>
+          <t>-23,7; 39,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 50,58</t>
+          <t>-19,28; 8,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 72,21</t>
+          <t>-28,82; -1,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 37,04</t>
+          <t>-19,52; 37,75</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-4,06</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-2,62</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 2,16</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 1,96</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 3,02</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 2,4</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; -1,02</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 1,57</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 1,48</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-4,81; -0,4</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-4,48; 0,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-7,37%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-8,93%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-6,68%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-4,47%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-23,1%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-17,01%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-5,81%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-16,55%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-12,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-25,63; 16,66</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-25,88; 15,51</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-26,19; 24,25</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-23,65; 15,16</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-38,22; -6,37</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-35,09; 10,9</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-18,86; 10,06</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-28,56; -2,84</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-26,6; 6,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
